--- a/Second.xlsx
+++ b/Second.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryazvereva/projects/awesome-website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryazvereva/projects/First_Pancake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{176162BA-1ECB-F842-BCD4-CABD5DAA93E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61808FC7-6619-BC46-8CA5-A77BF4D04BE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2960" windowWidth="26240" windowHeight="13920" xr2:uid="{06177174-5307-224B-8333-C812BA6D6EA2}"/>
+    <workbookView xWindow="2280" yWindow="2860" windowWidth="26240" windowHeight="13920" xr2:uid="{06177174-5307-224B-8333-C812BA6D6EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -372,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D664ED-107C-8C42-B53F-7C5F3FAE63CA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -390,6 +390,9 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
